--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -77,6 +77,27 @@
     <t xml:space="preserve">Arbeit an GUI-Prototyp</t>
   </si>
   <si>
+    <t xml:space="preserve">Teambesprechung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest API und Clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysql installiert und Datenbank erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proseminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start implementierung UML</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -98,9 +119,6 @@
     <t xml:space="preserve">Software/System Design und Architektur</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementierung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tests</t>
   </si>
   <si>
@@ -113,10 +131,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
-    <numFmt numFmtId="166" formatCode="[$-809]HH:MM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-809]hh:mm"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="[$-809]DD/MM/YYYY"/>
+    <numFmt numFmtId="168" formatCode="[$-809]dd/mm/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -352,21 +370,16 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,34 +467,72 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="4" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="4" t="n">
+        <v>43906</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="A9" s="4" t="n">
+        <v>43908</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="4" t="n">
+        <v>-620093</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
@@ -6422,7 +6473,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C1000" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6448,19 +6499,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,7 +6565,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,7 +6573,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6540,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">Start implementierung UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiter implementierung UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen der Repositorys</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -371,10 +377,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -535,16 +541,32 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="4" t="n">
+        <v>-620089</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="4" t="n">
+        <v>-620087</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -6499,17 +6521,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,7 +6563,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,7 +6579,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,7 +6587,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,7 +6603,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,7 +6611,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Erstellen der Repositorys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teams Verwalten</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -377,10 +380,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -569,16 +572,32 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="4" t="n">
+        <v>43928</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="4" t="n">
+        <v>43929</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -6521,17 +6540,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6582,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,7 +6630,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -380,10 +380,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -599,41 +599,89 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>43931</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>-620079</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>-620078</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>43935</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>43937</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
@@ -6537,10 +6585,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D21 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Teams Verwalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teams/Departments Verwalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departments Verwalten</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -379,11 +385,11 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -485,7 +491,9 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -529,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>-620093</v>
       </c>
@@ -543,7 +551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>-620089</v>
       </c>
@@ -557,7 +565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>-620087</v>
       </c>
@@ -571,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>43928</v>
       </c>
@@ -585,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>43929</v>
       </c>
@@ -683,43 +691,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>43943</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.0972222222222222</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>43944</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>43946</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -6562,7 +6618,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C28:C1000" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6585,20 +6641,20 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D21 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,7 +6678,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6630,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6638,7 +6694,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +6702,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,7 +6726,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Departments Verwalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeflip Würfel hinzufügen</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -385,11 +388,11 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -776,22 +779,46 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="4" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="4" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="4" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
@@ -6618,7 +6645,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C28:C1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C29:C1000" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6644,17 +6671,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6702,7 +6729,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,7 +6737,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6726,7 +6753,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,7 +6761,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t xml:space="preserve">Timeflip Würfel hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbindung Room Raspberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbindung Room Raspberry Timeflip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behebung kleine Fehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks zu Timeflip hinzufügen</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -388,11 +400,11 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -821,46 +833,102 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="4" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="A32" s="4" t="n">
+        <v>375962</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="4" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
@@ -6671,17 +6739,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,7 +6805,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6821,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,7 +6829,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -126,6 +126,27 @@
   </si>
   <si>
     <t xml:space="preserve">Tasks zu Timeflip hinzufügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teambesprechung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesen in Docker und Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockerfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockerfile und docker-compose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker und Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker Doku Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doku Tests Fehler behoben</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -400,11 +421,11 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -930,65 +951,145 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="4" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="4" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="4" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="4" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="4" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="4" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="4" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="4" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="4" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
@@ -6713,7 +6814,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C29:C1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C29:C37 C39:C1000" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6739,17 +6840,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,7 +6890,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,7 +6898,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,7 +6906,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6922,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,7 +6930,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Calvin-Gehrer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Doku Tests Fehler behoben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests, Fehler behoben</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -421,11 +424,11 @@
   </sheetPr>
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.67"/>
@@ -1092,16 +1095,32 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+      <c r="A48" s="4" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
@@ -6814,7 +6833,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C29:C37 C39:C1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6 C9:C21 C23:C26 C29:C37 C39:C48 C50:C1000" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6840,17 +6859,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6898,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,7 +6941,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6930,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
